--- a/Mass Calculation.xlsx
+++ b/Mass Calculation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/dfeldt_uwaterloo_ca/Documents/Documents/School/University_of_Waterloo/2nd_Year/MTE 219/Bridge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/dfeldt_uwaterloo_ca/Documents/Documents/School/University_of_Waterloo/2nd_Year/MTE 219/Bridge/bridge-testing-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{E912F3FE-8908-4D01-B0ED-E4FA7DC13662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5229C10C-49AB-4E99-B4AA-A31B7F6E176F}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{E912F3FE-8908-4D01-B0ED-E4FA7DC13662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{645BAD98-A993-4D65-A050-0EB7A217CED0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E4770D3E-5CDF-4879-8D17-C3753AA71D27}"/>
+    <workbookView xWindow="18180" yWindow="2640" windowWidth="10005" windowHeight="11505" xr2:uid="{E4770D3E-5CDF-4879-8D17-C3753AA71D27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>thickness</t>
   </si>
@@ -53,15 +53,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Big Rectangle</t>
-  </si>
-  <si>
-    <t>Small rectangle</t>
-  </si>
-  <si>
-    <t>Half circle</t>
-  </si>
-  <si>
     <t>Hole</t>
   </si>
   <si>
@@ -86,10 +77,40 @@
     <t>3 member pin</t>
   </si>
   <si>
-    <t>Smal rect(L)</t>
-  </si>
-  <si>
-    <t>Big rect (L)</t>
+    <t>Smal rect(Long b)</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Full circle</t>
+  </si>
+  <si>
+    <t>Design 1</t>
+  </si>
+  <si>
+    <t>3.75 rect</t>
+  </si>
+  <si>
+    <t>Design 2</t>
+  </si>
+  <si>
+    <t>2 rect</t>
+  </si>
+  <si>
+    <t>H Rectangle (Long b)</t>
+  </si>
+  <si>
+    <t>H rect (Long b)</t>
+  </si>
+  <si>
+    <t>Diag rect(Long b)</t>
+  </si>
+  <si>
+    <t>Long inner rect(Long b)</t>
+  </si>
+  <si>
+    <t>Shoft inner</t>
   </si>
 </sst>
 </file>
@@ -452,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB290C4E-A06D-4187-A313-10A31156E990}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -471,305 +492,337 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>1.2424999999999999</v>
       </c>
       <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="E2">
+        <f>6+(2*C2-D2)</f>
+        <v>6.915</v>
+      </c>
+      <c r="F2" s="2">
         <f>(1/16) * 2.54</f>
         <v>0.15875</v>
       </c>
-      <c r="F2">
-        <f>C2*D2*E2</f>
-        <v>1.6192499999999999</v>
-      </c>
       <c r="G2">
-        <v>0.384603688</v>
+        <f>D2*E2*F2</f>
+        <v>1.7234773125</v>
       </c>
       <c r="H2">
-        <f>G2*B2*F2</f>
-        <v>5.6049256961459992</v>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I2">
+        <f>H2*B2*G2</f>
+        <v>5.9718488878124996</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.7</v>
+        <v>1.2424999999999999</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E7" si="0">(1/16) * 2.54</f>
+        <v>1.57</v>
+      </c>
+      <c r="E3">
+        <f>3+(2*C3-D3)</f>
+        <v>3.915</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F7" si="0">(1/16) * 2.54</f>
         <v>0.15875</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F5" si="1">C3*D3*E3</f>
-        <v>0.80962499999999993</v>
-      </c>
       <c r="G3">
-        <v>0.384603688</v>
+        <f t="shared" ref="G3:G5" si="1">D3*E3*F3</f>
+        <v>0.97576481250000002</v>
       </c>
       <c r="H3">
-        <f>G3*B3*F3</f>
-        <v>0.31138476089699996</v>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I3">
+        <f>H3*B3*G3</f>
+        <v>0.37566945281250003</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.7</v>
+        <v>1.2424999999999999</v>
       </c>
       <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="E4">
+        <f>5+(2*C4-D4)</f>
+        <v>5.915</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>0.15875</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.349375</v>
-      </c>
-      <c r="G4">
-        <v>0.384603688</v>
+        <v>1.4742398125</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H5" si="2">G4*B4*F4</f>
-        <v>0.51897460149499997</v>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I5" si="2">H4*B4*G4</f>
+        <v>0.56758232781250006</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>1.2424999999999999</v>
       </c>
       <c r="D5">
-        <f>SQRT(34)</f>
-        <v>5.8309518948453007</v>
-      </c>
-      <c r="E5" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="E5">
+        <f>SQRT(34)+(2*C5-D5)</f>
+        <v>6.7459518948453008</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.15875</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>1.5736281426213756</v>
-      </c>
-      <c r="G5">
-        <v>0.384603688</v>
+        <v>1.6813441853915059</v>
       </c>
       <c r="H5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>6.0522318719277104</v>
+        <v>6.4731751137572981</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>1.7</v>
+        <v>1.2424999999999999</v>
       </c>
       <c r="D6">
+        <v>1.57</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>0.15875</v>
       </c>
-      <c r="F6">
-        <f>(((C6/2)^2) * E6)/2</f>
-        <v>5.7348437499999995E-2</v>
-      </c>
       <c r="G6">
-        <v>0.384603688</v>
+        <f>(((D6/2)^2) * F6)</f>
+        <v>9.7825718749999999E-2</v>
       </c>
       <c r="H6">
-        <f>G6*B6*F6</f>
-        <v>0.92636966366857487</v>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I6">
+        <f>H6*B6*G6</f>
+        <v>0.79092093609375003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>42</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <v>1.2424999999999999</v>
+      </c>
+      <c r="D7" s="1">
         <f>(3/16)*2.54</f>
         <v>0.47625000000000001</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>0.15875</v>
       </c>
-      <c r="F7">
-        <f>(((C7/2)^2) * E7)</f>
+      <c r="G7">
+        <f>(((D7/2)^2) * F7)</f>
         <v>9.00168310546875E-3</v>
       </c>
-      <c r="G7">
-        <v>-0.384603688</v>
-      </c>
       <c r="H7">
-        <f>G7*B7*F7</f>
-        <v>-0.14540738186396412</v>
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="I7">
+        <f>H7*B7*G7</f>
+        <v>-0.14555721581542971</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8:C10" si="3">(3/16)*2.54</f>
+      <c r="C8">
+        <v>1.2424999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:D10" si="3">(3/16)*2.54</f>
         <v>0.47625000000000001</v>
       </c>
-      <c r="D8">
-        <f>4*E2</f>
+      <c r="E8">
+        <f>4*F2</f>
         <v>0.63500000000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <f>(((C8/2)^2) * D8)</f>
+      <c r="G8">
+        <f>(((D8/2)^2) * E8)</f>
         <v>3.6006732421875E-2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>747/1000</f>
         <v>0.747</v>
       </c>
-      <c r="H8">
-        <f>G8*B8*F8</f>
+      <c r="I8">
+        <f>H8*B8*G8</f>
         <v>0.21517623295312499</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
+        <v>1.2424999999999999</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="3"/>
         <v>0.47625000000000001</v>
       </c>
-      <c r="D9">
-        <f>3*E2</f>
+      <c r="E9">
+        <f>3*F2</f>
         <v>0.47625000000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F10" si="4">(((C9/2)^2) * D9)</f>
+      <c r="G9">
+        <f t="shared" ref="G9:G10" si="4">(((D9/2)^2) * E9)</f>
         <v>2.7005049316406252E-2</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G10" si="5">747/1000</f>
+      <c r="H9">
+        <f t="shared" ref="H9:H10" si="5">747/1000</f>
         <v>0.747</v>
       </c>
-      <c r="H9">
-        <f>G9*B9*F9</f>
+      <c r="I9">
+        <f>H9*B9*G9</f>
         <v>4.0345543678710939E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
+        <v>1.2424999999999999</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="3"/>
         <v>0.47625000000000001</v>
       </c>
-      <c r="D10">
-        <f>2*E2</f>
+      <c r="E10">
+        <f>2*F2</f>
         <v>0.3175</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="4"/>
         <v>1.80033662109375E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="5"/>
         <v>0.747</v>
       </c>
-      <c r="H10">
-        <f t="shared" ref="H10" si="6">G10*B10*F10</f>
+      <c r="I10">
+        <f t="shared" ref="I10" si="6">H10*B10*G10</f>
         <v>2.6897029119140624E-2</v>
       </c>
-      <c r="J10">
-        <f>0.35*2</f>
-        <v>0.7</v>
-      </c>
-      <c r="K10">
-        <v>12</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H11">
-        <f>SUM(H2:H10)</f>
-        <v>13.550898018021297</v>
-      </c>
+      <c r="I11">
+        <f>SUM(I2:I10)</f>
+        <v>14.316058308224095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -779,356 +832,699 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>2</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>1.7</v>
+        <v>0.99</v>
       </c>
       <c r="D15">
-        <v>6.7</v>
-      </c>
-      <c r="E15" s="2">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="E15">
+        <f>7.5+(2*C15-D15)</f>
+        <v>7.5880000000000001</v>
+      </c>
+      <c r="F15" s="2">
         <f>(1/16) * 2.54</f>
         <v>0.15875</v>
       </c>
-      <c r="F15">
-        <f>C15*D15*E15</f>
-        <v>1.8081625000000001</v>
-      </c>
       <c r="G15">
-        <v>0.384603688</v>
+        <f>D15*E15*F15</f>
+        <v>2.27909374</v>
       </c>
       <c r="H15">
-        <f>G15*B15*F15</f>
-        <v>3.4771298300165001</v>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I15">
+        <f>H15*B15*G15</f>
+        <v>6.1421576293000006</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.99</v>
+      </c>
+      <c r="D16">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="E16">
+        <v>3.75</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:F20" si="7">(1/16) * 2.54</f>
+        <v>0.15875</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="8">D16*E16*F16</f>
+        <v>1.12633125</v>
+      </c>
+      <c r="H16">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I16">
+        <f>H16*B16*G16</f>
+        <v>0.43363753124999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.99</v>
+      </c>
+      <c r="D17">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15875</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>1.5017749999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I18" si="9">H17*B17*G17</f>
+        <v>0.57818337499999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0.99</v>
+      </c>
+      <c r="D18">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="E18">
+        <f>6.25+(2*C18-D18)</f>
+        <v>6.3380000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15875</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>1.9036499899999999</v>
+      </c>
+      <c r="H18">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="9"/>
+        <v>5.8632419691999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.99</v>
+      </c>
+      <c r="D19">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15875</v>
+      </c>
+      <c r="G19">
+        <f>(((D19/2)^2) * F19)</f>
+        <v>0.14206791499999999</v>
+      </c>
+      <c r="H19">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I19">
+        <f>H19*B19*G19</f>
+        <v>0.92983450367499987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>1.7</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="B20">
+        <f>B19*2</f>
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>0.99</v>
+      </c>
+      <c r="D20" s="1">
+        <f>(3/16)*2.54</f>
+        <v>0.47625000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
         <f>(1/16) * 2.54</f>
         <v>0.15875</v>
       </c>
-      <c r="F16">
-        <f>C16*D16*E16</f>
-        <v>1.6192499999999999</v>
-      </c>
-      <c r="G16">
-        <v>0.384603688</v>
-      </c>
-      <c r="H16">
-        <f>G16*B16*F16</f>
-        <v>2.4910780871759997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G20">
+        <f>(((D20/2)^2) * F20)</f>
+        <v>9.00168310546875E-3</v>
+      </c>
+      <c r="H20">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="I20">
+        <f>H20*B20*G20</f>
+        <v>-0.11783203185058594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>0.99</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:D23" si="10">(3/16)*2.54</f>
+        <v>0.47625000000000001</v>
+      </c>
+      <c r="E21">
+        <f>4*F15</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>(((D21/2)^2) * E21)</f>
+        <v>3.6006732421875E-2</v>
+      </c>
+      <c r="H21">
+        <f>747/1000</f>
+        <v>0.747</v>
+      </c>
+      <c r="I21">
+        <f>H21*B21*G21</f>
+        <v>0.16138217471484376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0.99</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="10"/>
+        <v>0.47625000000000001</v>
+      </c>
+      <c r="E22">
+        <f>3*F15</f>
+        <v>0.47625000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G23" si="11">(((D22/2)^2) * E22)</f>
+        <v>2.7005049316406252E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H23" si="12">747/1000</f>
+        <v>0.747</v>
+      </c>
+      <c r="I22">
+        <f>H22*B22*G22</f>
+        <v>4.0345543678710939E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0.99</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="10"/>
+        <v>0.47625000000000001</v>
+      </c>
+      <c r="E23">
+        <f>2*F15</f>
+        <v>0.3175</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="11"/>
+        <v>1.80033662109375E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="12"/>
+        <v>0.747</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23" si="13">H23*B23*G23</f>
+        <v>2.6897029119140624E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f>SUM(I15:I23)</f>
+        <v>14.057847724087109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>1.7</v>
-      </c>
-      <c r="D17">
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17:E22" si="7">(1/16) * 2.54</f>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="D27">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="E27">
+        <f>6+(2*C27-D27)</f>
+        <v>6.8478000000000003</v>
+      </c>
+      <c r="F27" s="2">
+        <f>(1/16) * 2.54</f>
         <v>0.15875</v>
       </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F20" si="8">C17*D17*E17</f>
-        <v>0.80962499999999993</v>
-      </c>
-      <c r="G17">
-        <v>0.384603688</v>
-      </c>
-      <c r="H17">
-        <f>G17*B17*F17</f>
-        <v>0.31138476089699996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
+      <c r="G27">
+        <f>D27*E27*F27</f>
+        <v>1.5751908742500003</v>
+      </c>
+      <c r="H27">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I27">
+        <f>H27*B27*G27</f>
+        <v>5.4580363792762503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>1.7</v>
-      </c>
-      <c r="D18">
+      <c r="C28">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="D28">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="E28">
+        <f>2+(2*C28-D28)</f>
+        <v>2.8478000000000003</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ref="F28:F33" si="14">(1/16) * 2.54</f>
+        <v>0.15875</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G31" si="15">D28*E28*F28</f>
+        <v>0.65507587425000013</v>
+      </c>
+      <c r="H28">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I28">
+        <f>H28*B28*G28</f>
+        <v>0.25220421158625006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="D29">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="E29">
+        <f>5+(2*C29-D29)</f>
+        <v>5.8478000000000003</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="14"/>
+        <v>0.15875</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="15"/>
+        <v>1.34516212425</v>
+      </c>
+      <c r="H29">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I31" si="16">H29*B29*G29</f>
+        <v>0.51788741783625003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="E18" s="2">
-        <f t="shared" si="7"/>
+      <c r="C30">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="D30">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="E30">
+        <f>SQRT(41)+(2*C30-D30)</f>
+        <v>7.2509242374328489</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="14"/>
         <v>0.15875</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="8"/>
-        <v>1.349375</v>
-      </c>
-      <c r="G18">
-        <v>0.384603688</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H20" si="9">G18*B18*F18</f>
-        <v>0.51897460149499997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
+      <c r="G30">
+        <f t="shared" si="15"/>
+        <v>1.6679210386813816</v>
+      </c>
+      <c r="H30">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="16"/>
+        <v>3.2107479994616597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>1.7</v>
-      </c>
-      <c r="D19">
-        <f>D20+0.7</f>
-        <v>6.5309518948453009</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="7"/>
+      <c r="C31">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="D31">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="E31">
+        <f>SQRT(29)+(2*C31-D31)</f>
+        <v>6.2329648071345041</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="14"/>
         <v>0.15875</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="8"/>
-        <v>1.7625406426213754</v>
-      </c>
-      <c r="G19">
-        <v>0.384603688</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="9"/>
-        <v>3.3893981570103549</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>1.7</v>
-      </c>
-      <c r="D20">
-        <f>SQRT(34)</f>
-        <v>5.8309518948453007</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="7"/>
+      <c r="G31">
+        <f t="shared" si="15"/>
+        <v>1.4337611033791411</v>
+      </c>
+      <c r="H31">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="16"/>
+        <v>2.7599901240048466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="D32">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="14"/>
         <v>0.15875</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="8"/>
-        <v>1.5736281426213756</v>
-      </c>
-      <c r="G20">
-        <v>0.384603688</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="9"/>
-        <v>3.0261159359638552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
+      <c r="G32">
+        <f>(((D32/2)^2) * F32)</f>
+        <v>8.3327914687500018E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I32">
+        <f>H32*B32*G32</f>
+        <v>0.6737061902484377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
         <v>42</v>
       </c>
-      <c r="C21">
-        <v>1.7</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="7"/>
-        <v>0.15875</v>
-      </c>
-      <c r="F21">
-        <f>(((C21/2)^2) * E21)/2</f>
-        <v>5.7348437499999995E-2</v>
-      </c>
-      <c r="G21">
-        <v>0.384603688</v>
-      </c>
-      <c r="H21">
-        <f>G21*B21*F21</f>
-        <v>0.92636966366857487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="C33">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="D33" s="1">
         <f>(3/16)*2.54</f>
         <v>0.47625000000000001</v>
       </c>
-      <c r="D22">
+      <c r="E33">
         <v>0</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="7"/>
+      <c r="F33" s="2">
+        <f t="shared" si="14"/>
         <v>0.15875</v>
       </c>
-      <c r="F22">
-        <f>(((C22/2)^2) * E22)</f>
+      <c r="G33">
+        <f>(((D33/2)^2) * F33)</f>
         <v>9.00168310546875E-3</v>
       </c>
-      <c r="G22">
-        <v>-0.384603688</v>
-      </c>
-      <c r="H22">
-        <f>G22*B22*F22</f>
-        <v>-0.14540738186396412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
+      <c r="H33">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="I33">
+        <f>H33*B33*G33</f>
+        <v>-0.14555721581542971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
         <v>8</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" ref="C23:C25" si="10">(3/16)*2.54</f>
+      <c r="C34">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" ref="D34:D36" si="17">(3/16)*2.54</f>
         <v>0.47625000000000001</v>
       </c>
-      <c r="D23">
-        <f>4*E16</f>
+      <c r="E34">
+        <f>4*F27</f>
         <v>0.63500000000000001</v>
       </c>
-      <c r="E23">
+      <c r="F34">
         <v>0</v>
       </c>
-      <c r="F23">
-        <f>(((C23/2)^2) * D23)</f>
+      <c r="G34">
+        <f>(((D34/2)^2) * E34)</f>
         <v>3.6006732421875E-2</v>
       </c>
-      <c r="G23">
+      <c r="H34">
         <f>747/1000</f>
         <v>0.747</v>
       </c>
-      <c r="H23">
-        <f>G23*B23*F23</f>
+      <c r="I34">
+        <f>H34*B34*G34</f>
         <v>0.21517623295312499</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
         <v>2</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="10"/>
+      <c r="C35">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="17"/>
         <v>0.47625000000000001</v>
       </c>
-      <c r="D24">
-        <f>3*E16</f>
+      <c r="E35">
+        <f>3*F27</f>
         <v>0.47625000000000001</v>
       </c>
-      <c r="E24">
+      <c r="F35">
         <v>0</v>
       </c>
-      <c r="F24">
-        <f t="shared" ref="F24:F25" si="11">(((C24/2)^2) * D24)</f>
+      <c r="G35">
+        <f t="shared" ref="G35:G36" si="18">(((D35/2)^2) * E35)</f>
         <v>2.7005049316406252E-2</v>
       </c>
-      <c r="G24">
-        <f t="shared" ref="G24:G25" si="12">747/1000</f>
+      <c r="H35">
+        <f t="shared" ref="H35:H36" si="19">747/1000</f>
         <v>0.747</v>
       </c>
-      <c r="H24">
-        <f>G24*B24*F24</f>
+      <c r="I35">
+        <f>H35*B35*G35</f>
         <v>4.0345543678710939E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
         <v>2</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="10"/>
+      <c r="C36">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="17"/>
         <v>0.47625000000000001</v>
       </c>
-      <c r="D25">
-        <f>2*E16</f>
+      <c r="E36">
+        <f>2*F27</f>
         <v>0.3175</v>
       </c>
-      <c r="E25">
+      <c r="F36">
         <v>0</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="11"/>
+      <c r="G36">
+        <f t="shared" si="18"/>
         <v>1.80033662109375E-2</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="12"/>
+      <c r="H36">
+        <f t="shared" si="19"/>
         <v>0.747</v>
       </c>
-      <c r="H25">
-        <f t="shared" ref="H25" si="13">G25*B25*F25</f>
+      <c r="I36">
+        <f t="shared" ref="I36" si="20">H36*B36*G36</f>
         <v>2.6897029119140624E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H26">
-        <f>SUM(H15:H25)</f>
-        <v>14.277462460114297</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f>SUM(I27:I36)</f>
+        <v>13.009433912349243</v>
       </c>
     </row>
   </sheetData>
@@ -1361,18 +1757,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,18 +1791,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11AE232B-433D-45B0-8212-50D71B18D9DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76769B4-B41E-4B03-93D2-360483E5BF97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11AE232B-433D-45B0-8212-50D71B18D9DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>